--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -8315,16 +8315,42 @@
           <t>120k P</t>
         </is>
       </c>
-      <c r="E223" s="9" t="n"/>
+      <c r="E223" s="9" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
       <c r="F223" s="17" t="n">
         <v>3200</v>
       </c>
-      <c r="G223" s="36" t="n"/>
-      <c r="H223" s="28" t="n"/>
-      <c r="I223" s="20" t="n"/>
-      <c r="J223" s="20" t="n"/>
-      <c r="K223" s="20" t="n"/>
-      <c r="L223" s="20" t="n"/>
+      <c r="G223" s="36" t="inlineStr">
+        <is>
+          <t>24-03-23</t>
+        </is>
+      </c>
+      <c r="H223" s="28" t="n">
+        <v>666</v>
+      </c>
+      <c r="I223" s="20" t="inlineStr">
+        <is>
+          <t>guru</t>
+        </is>
+      </c>
+      <c r="J223" s="20" t="inlineStr">
+        <is>
+          <t>91119</t>
+        </is>
+      </c>
+      <c r="K223" s="20" t="inlineStr">
+        <is>
+          <t>ygigbqidsbij</t>
+        </is>
+      </c>
+      <c r="L223" s="20" t="inlineStr">
+        <is>
+          <t>24032301</t>
+        </is>
+      </c>
       <c r="M223" s="20">
         <f>SUM(H223,-F223)</f>
         <v/>
@@ -58913,7 +58939,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
@@ -59019,7 +59045,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
           <t>02-08-21</t>
@@ -59040,6 +59065,44 @@
       </c>
       <c r="H3" t="n">
         <v>1500</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>24032301</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>guru</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24-03-23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>120k P</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>666</v>
+      </c>
+      <c r="H4" t="n">
+        <v>666</v>
       </c>
     </row>
   </sheetData>
